--- a/data/income_statement/2digits/size/56_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/56_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>56-Food and beverage service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>56-Food and beverage service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>3277894.65532</v>
+        <v>3245681.8544</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4161624.19462</v>
+        <v>4123140.74042</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>5567509.081789999</v>
+        <v>5520632.92822</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>6854530.920369999</v>
+        <v>6707761.789209999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>8309732.932229999</v>
+        <v>8193913.31562</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>10478594.71592</v>
+        <v>10311530.05363</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>10821676.28913</v>
+        <v>12532809.73834</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>14379006.60132</v>
+        <v>14367028.46019</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>18102968.98439</v>
+        <v>17783335.25218</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>21572745.78477</v>
+        <v>21548576.253</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>27626716.59486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>27596014.26368</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>22041021.356</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>2975576.062309999</v>
+        <v>2945190.37295</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>3773586.58251</v>
+        <v>3735550.28395</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>5023761.566439999</v>
+        <v>4977819.853450001</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>6212207.60133</v>
+        <v>6070201.59613</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>7530431.38763</v>
+        <v>7418826.76142</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>9553918.926980002</v>
+        <v>9397360.99461</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>9700294.86057</v>
+        <v>11408470.14789</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>13198178.7205</v>
+        <v>13195090.87917</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>16764332.23107</v>
+        <v>16475217.27059</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>20049422.34119</v>
+        <v>20025397.48191</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>25410672.08469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25380446.57875</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>20946546.816</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>269733.32762</v>
+        <v>268609.8039699999</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>343416.48483</v>
@@ -1037,163 +953,183 @@
         <v>451826.0235</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>499968.49276</v>
+        <v>499919.53362</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>609459.3888</v>
+        <v>608747.8387999999</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>776209.95031</v>
+        <v>773771.82811</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>928553.8536800001</v>
+        <v>934837.8073300002</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>898725.2553799999</v>
+        <v>897377.57522</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>962385.33317</v>
+        <v>956306.1438199999</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1188343.31314</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1678565.77815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1677997.61996</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>624768.148</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>32585.26539</v>
+        <v>31881.67748</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>44621.12728</v>
+        <v>44173.97164</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>91921.49184999999</v>
+        <v>90987.05127000001</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>142354.82628</v>
+        <v>137640.65946</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>169842.1558</v>
+        <v>166338.7154</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>148465.83863</v>
+        <v>140397.23091</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>192827.57488</v>
+        <v>189501.78312</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>282102.62544</v>
+        <v>274560.0058</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>376251.42015</v>
+        <v>351811.83777</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>334980.13044</v>
+        <v>334835.45795</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>537478.73202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>537570.0649700001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>469706.392</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>58882.96942</v>
+        <v>51537.88635</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>54219.99681</v>
+        <v>53719.56371</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>77274.73063999999</v>
+        <v>76911.95257000001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>108167.24652</v>
+        <v>107873.00887</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>74356.193</v>
+        <v>74187.47099</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>116770.04115</v>
+        <v>116633.83213</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>131344.96714</v>
+        <v>151409.12154</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>192979.93513</v>
+        <v>192283.78301</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>208614.69984</v>
+        <v>201427.32365</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>213655.05253</v>
+        <v>213562.12674</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>375094.06299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>375072.8205</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>340508.572</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>24094.831</v>
+        <v>16752.3914</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>24960.11512</v>
+        <v>24586.23202</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>37892.19951999999</v>
+        <v>37576.11419000001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>48601.19247</v>
+        <v>48425.17982</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>52622.42952000001</v>
+        <v>52453.70751000001</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>79086.75233</v>
+        <v>78950.54331000001</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>107020.97909</v>
+        <v>109637.74874</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>144430.16873</v>
+        <v>143761.22993</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>124764.7482</v>
+        <v>117814.78785</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>122490.51496</v>
+        <v>122397.58917</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>197910.53864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>197889.85189</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>152573.421</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>33104.73685</v>
+        <v>33102.09338000001</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>24840.53771</v>
+        <v>24713.98771</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>35384.73766000001</v>
+        <v>35338.04492</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>53025.01716</v>
+        <v>52906.79216</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>17208.83599</v>
@@ -1202,13 +1138,13 @@
         <v>32280.29483</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>16535.79571</v>
+        <v>33983.18046</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>38616.58024</v>
+        <v>38589.36692</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>74245.05673000001</v>
+        <v>74243.82598000001</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>80348.66512000001</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>166718.40456</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>183648.849</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1683.40157</v>
@@ -1238,133 +1179,148 @@
         <v>4524.92749</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>5402.993989999999</v>
+        <v>5402.99399</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>7788.19234</v>
+        <v>7788.192340000001</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>9933.186159999999</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>9604.894909999999</v>
+        <v>9368.70982</v>
       </c>
       <c r="L12" s="48" t="n">
         <v>10815.87245</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>10465.11979</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>10464.56405</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>4286.302</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>3219011.6859</v>
+        <v>3194143.96805</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4107404.19781</v>
+        <v>4069421.17671</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5490234.35115</v>
+        <v>5443720.975649999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>6746363.673850001</v>
+        <v>6599888.78034</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>8235376.73923</v>
+        <v>8119725.84463</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>10361824.67477</v>
+        <v>10194896.2215</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>10690331.32199</v>
+        <v>12381400.6168</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>14186026.66619</v>
+        <v>14174744.67718</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>17894354.28455</v>
+        <v>17581907.92853</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>21359090.73224</v>
+        <v>21335014.12626</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>27251622.53187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>27220941.44318</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>21700512.784</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>2668669.00135</v>
+        <v>2651220.37982</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3367045.02699</v>
+        <v>3342857.12051</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>4546352.57791</v>
+        <v>4525685.49752</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>5443488.35896</v>
+        <v>5356606.345310001</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6661362.49256</v>
+        <v>6602009.84831</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>8346705.2364</v>
+        <v>8252260.31287</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>8813451.24055</v>
+        <v>9904618.20623</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>11178507.69101</v>
+        <v>11219179.04173</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>13767856.83658</v>
+        <v>13552930.03524</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16578168.93743</v>
+        <v>16561224.96707</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>21019073.42295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>20994492.61282</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>17456157.302</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>1289911.83926</v>
+        <v>1286159.39033</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1485041.54905</v>
+        <v>1480278.49924</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1899155.76975</v>
+        <v>1898116.28487</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2415999.49471</v>
+        <v>2415836.08675</v>
       </c>
       <c r="G15" s="48" t="n">
         <v>2861440.81722</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>3650538.45828</v>
+        <v>3649408.09685</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>3874052.76827</v>
+        <v>4581422.574309999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>4864430.451610001</v>
+        <v>4812780.520389999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>5858690.821540001</v>
+        <v>5826011.77484</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>6986925.99486</v>
@@ -1372,89 +1328,104 @@
       <c r="M15" s="48" t="n">
         <v>8680564.258130001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>6734871.682</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>114564.35038</v>
+        <v>112377.63326</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>166393.88266</v>
+        <v>165811.29396</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>211288.52621</v>
+        <v>210062.85793</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>325590.4708300001</v>
+        <v>312036.33504</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>521804.12489</v>
+        <v>479833.0791799999</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>597224.4875800001</v>
+        <v>578375.04283</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>548456.3247999999</v>
+        <v>785981.16926</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>938454.4690900001</v>
+        <v>912672.8831099999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1227447.49409</v>
+        <v>1173864.62745</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1287830.22634</v>
+        <v>1287777.83225</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1984583.11599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1981467.06574</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>2044362.895</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>1249910.90513</v>
+        <v>1238401.44965</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>1714629.2219</v>
+        <v>1695786.95393</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>2431456.56669</v>
+        <v>2413054.63946</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>2692493.46244</v>
+        <v>2619337.94558</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>3277891.55795</v>
+        <v>3260509.95941</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4079159.54607</v>
+        <v>4004695.90797</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4347830.95373</v>
+        <v>4494183.280060001</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5337747.42283</v>
+        <v>5456760.15357</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>6665862.511650001</v>
+        <v>6544629.099700001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8292110.77149</v>
+        <v>8275219.195219999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>10331817.93854</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>10310353.17866</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>8664061.992000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>14281.90658</v>
@@ -1466,22 +1437,22 @@
         <v>4451.715260000001</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>9404.930980000001</v>
+        <v>9395.977939999999</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>225.9925</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>19782.74447</v>
+        <v>19781.26522</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>43111.19375000001</v>
+        <v>43031.18259999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>37875.34748</v>
+        <v>36965.48465999999</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>15856.0093</v>
+        <v>8424.53325</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>11301.94474</v>
@@ -1489,92 +1460,107 @@
       <c r="M18" s="48" t="n">
         <v>22108.11029</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>12860.733</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>550342.6845500001</v>
+        <v>542923.58823</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>740359.17082</v>
+        <v>726564.0562</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>943881.77324</v>
+        <v>918035.4781299998</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1302875.31489</v>
+        <v>1243282.43503</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1574014.24667</v>
+        <v>1517715.99632</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2015119.43837</v>
+        <v>1942635.90863</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1876880.08144</v>
+        <v>2476782.41057</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>3007518.97518</v>
+        <v>2955565.63545</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>4126497.44797</v>
+        <v>4028977.89329</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>4780921.79481</v>
+        <v>4773789.159190001</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>6232549.10892</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>6226448.830360001</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>4244355.482</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>508894.13491</v>
+        <v>501570.83088</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>646846.19618</v>
+        <v>624221.6185</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>847158.19861</v>
+        <v>821289.5662999999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>1181761.00009</v>
+        <v>1112683.62739</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1447736.77771</v>
+        <v>1373298.37653</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1792384.89332</v>
+        <v>1689516.6195</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1640281.26181</v>
+        <v>2116656.56255</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>2729797.60616</v>
+        <v>2652910.0592</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>3364155.06693</v>
+        <v>3238517.32268</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>3991227.31434</v>
+        <v>3972912.93526</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>4959185.52997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4944281.08009</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>4416502.584</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>8.325059999999999</v>
+        <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>34.7147</v>
@@ -1586,7 +1572,7 @@
         <v>83.90604</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1003.16966</v>
+        <v>74.82994000000001</v>
       </c>
       <c r="H21" s="48" t="n">
         <v>1763.88139</v>
@@ -1598,7 +1584,7 @@
         <v>104.51973</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>450.53132</v>
+        <v>449.27959</v>
       </c>
       <c r="L21" s="48" t="n">
         <v>1.62184</v>
@@ -1606,194 +1592,219 @@
       <c r="M21" s="48" t="n">
         <v>1.65</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>185763.70238</v>
+        <v>185310.48884</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>257373.79846</v>
+        <v>252163.22658</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>345771.67569</v>
+        <v>336687.28694</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>507492.82351</v>
+        <v>483263.2093099999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>588856.20878</v>
+        <v>570645.11303</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>769532.76318</v>
+        <v>733285.17359</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>570004.49587</v>
+        <v>901933.1976900001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>1318004.91241</v>
+        <v>1286111.50942</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>1785737.82744</v>
+        <v>1747604.73252</v>
       </c>
       <c r="L22" s="48" t="n">
         <v>2286276.81765</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>2847462.95674</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>2847326.81414</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>2331600.376</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>323122.10747</v>
+        <v>316260.34204</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>389437.68302</v>
+        <v>372023.67722</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>500916.76788</v>
+        <v>484132.52432</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>674184.2705399999</v>
+        <v>629336.5120399999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>857877.3992700001</v>
+        <v>802578.4335599999</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1021088.24875</v>
+        <v>954467.56452</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1070276.76594</v>
+        <v>1214723.36486</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1411688.17402</v>
+        <v>1366694.03005</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1577966.70817</v>
+        <v>1490463.31057</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1704948.87485</v>
+        <v>1686634.49577</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2111720.92323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2096952.61595</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2084902.144</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>41448.54963999999</v>
+        <v>41352.75735</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>93512.97464</v>
+        <v>102342.4377</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>96723.57462999999</v>
+        <v>96745.91183</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>121114.3148</v>
+        <v>130598.80764</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>126277.46896</v>
+        <v>144417.61979</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>222734.54505</v>
+        <v>253119.28913</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>236598.81963</v>
+        <v>360125.84802</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>277721.36902</v>
+        <v>302655.57625</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>762342.38104</v>
+        <v>790460.5706100001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>789694.4804700001</v>
+        <v>800876.2239300001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1273363.57895</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1282167.75027</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-172147.102</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>140619.62456</v>
+        <v>132391.09772</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>182637.59701</v>
+        <v>150734.10935</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>414105.50431</v>
+        <v>199001.03433</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>454667.11829</v>
+        <v>229063.92171</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>658681.0163499999</v>
+        <v>419175.09697</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>790565.6763399999</v>
+        <v>286591.54457</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>692144.70467</v>
+        <v>603118.63517</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>1318417.68487</v>
+        <v>929460.55866</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1892760.71847</v>
+        <v>1302635.78238</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1205610.05065</v>
+        <v>1205222.31662</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>907980.30114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>907479.6152100001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>997986.523</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>2012.18433</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>4186.46922</v>
+        <v>3911.06991</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>31602.17986</v>
+        <v>4236.956730000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>36759.30765</v>
+        <v>8454.43851</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>55314.84429</v>
+        <v>9740.952280000001</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>28507.40384</v>
+        <v>1088.69149</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10141.50818</v>
+        <v>10079.7069</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>44819.08756</v>
+        <v>15412.11304</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>114108.60088</v>
+        <v>32007.9493</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>16811.86228</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>53821.72019</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>3108.105</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>21.3234</v>
@@ -1823,10 +1839,10 @@
         <v>2727.33046</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>29160.74906</v>
+        <v>3068.04501</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>57404.6805</v>
+        <v>4729.68779</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>45452.02987999999</v>
@@ -1840,62 +1856,72 @@
       <c r="M27" s="48" t="n">
         <v>10638.45776</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>3117.547</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>22759.6792</v>
+        <v>17028.62489</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>22916.36152</v>
+        <v>12949.32309</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>161929.87862</v>
+        <v>16980.30381</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>189282.97235</v>
+        <v>23204.09009</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>163122.14255</v>
+        <v>26165.89752</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>233948.26462</v>
+        <v>32448.89629</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>60826.18892</v>
+        <v>39661.02846</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>353803.2292</v>
+        <v>60005.46515</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>478268.68521</v>
+        <v>104786.52847</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>125377.556</v>
+        <v>125191.1025</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>175101.67876</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>174869.85218</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>152581.137</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>231.31565</v>
+        <v>44.66557</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>27.28651</v>
+        <v>9.29167</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>1406.13132</v>
+        <v>935.0610599999999</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>362.62173</v>
+        <v>79.73799</v>
       </c>
       <c r="G29" s="48" t="n">
         <v>334.66705</v>
@@ -1904,7 +1930,7 @@
         <v>453.78587</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14402.77136</v>
+        <v>14475.48724</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>2042.46618</v>
@@ -1918,77 +1944,87 @@
       <c r="M29" s="48" t="n">
         <v>14.47455</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>451.236</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5248.784019999999</v>
+        <v>5225.76495</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3316.09673</v>
+        <v>3284.11142</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3152.37626</v>
+        <v>1283.30064</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1756.60442</v>
+        <v>1615.01417</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3297.15172</v>
+        <v>3288.66043</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>2500.3741</v>
+        <v>2497.20906</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>2104.58217</v>
+        <v>2108.56937</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>4684.12682</v>
+        <v>4226.8878</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6021.148109999999</v>
+        <v>5975.919470000001</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>14856.29701</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>17424.10725</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17419.66225</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>10417.895</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>91.70309000000002</v>
+        <v>91.69876000000001</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2901.20824</v>
+        <v>2901.19113</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>272.72907</v>
+        <v>272.70538</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1291.07203</v>
+        <v>1282.14149</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>62934.08809999999</v>
+        <v>62930.26289999999</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>466.17929</v>
+        <v>458.43404</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>59476.192</v>
+        <v>59091.97747</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>12597.33145</v>
+        <v>11801.99969</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1771.78662</v>
+        <v>1561.54257</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>777.95872</v>
@@ -1996,38 +2032,43 @@
       <c r="M31" s="48" t="n">
         <v>1274.06457</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>8103.343</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>37755.8593</v>
+        <v>35799.55171</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>48645.29692</v>
+        <v>29857.35546</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>76518.1707</v>
+        <v>52677.70099</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>60128.65021000001</v>
+        <v>48365.04682</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>184429.30616</v>
+        <v>152201.0305</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>342737.92324</v>
+        <v>122548.32569</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>373073.57005</v>
+        <v>358448.71839</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>669079.70461</v>
+        <v>629612.75799</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1011427.652</v>
+        <v>889923.21806</v>
       </c>
       <c r="L32" s="48" t="n">
         <v>809859.21638</v>
@@ -2035,11 +2076,16 @@
       <c r="M32" s="48" t="n">
         <v>353079.75581</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="48" t="n">
+        <v>566191.054</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>33.11244</v>
@@ -2060,7 +2106,7 @@
         <v>71.25554</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>0</v>
+        <v>154.82356</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>46.83790999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2167.51833</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>2682.573</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>72465.66313000002</v>
+        <v>72134.17167</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>98498.4011</v>
+        <v>95675.2899</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>137900.47952</v>
+        <v>121291.44676</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>163526.18998</v>
+        <v>144503.75272</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>186488.02814</v>
+        <v>161752.83795</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>152719.74078</v>
+        <v>123956.90158</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>114715.21149</v>
+        <v>114368.63599</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>185892.87126</v>
+        <v>160860.00102</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>168401.94677</v>
+        <v>155619.72563</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>220396.48231</v>
+        <v>220195.20178</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>294458.52392</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>294194.10957</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>251333.633</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>81378.62289</v>
+        <v>78201.33844999998</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>129611.57512</v>
+        <v>109618.25609</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>302381.8271</v>
+        <v>159686.12979</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>312304.74336</v>
+        <v>150214.9824</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>560255.4919400001</v>
+        <v>266423.42428</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>749370.10061</v>
+        <v>260633.78712</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>815619.3421100001</v>
+        <v>512881.16619</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1291430.99031</v>
+        <v>988000.0240699999</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1777251.48242</v>
+        <v>1299558.72422</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>1049690.03023</v>
+        <v>1049658.40508</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>650248.51686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>650039.8060399999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>840340.6949999999</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>21394.23085</v>
+        <v>21332.54232</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>47071.34735</v>
+        <v>47048.32448</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>57809.03691</v>
+        <v>57789.59607</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>64473.07412</v>
+        <v>63982.91722</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>71635.79521</v>
+        <v>71203.27546999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>87327.27279</v>
+        <v>86939.47270999999</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>91922.63924</v>
+        <v>103671.70472</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>98542.43154000001</v>
+        <v>98535.01623000001</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>119549.82089</v>
+        <v>119514.4442</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>152937.92104</v>
@@ -2230,35 +2296,40 @@
       <c r="M37" s="48" t="n">
         <v>199210.8758</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>137495.087</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>10253.47092</v>
+        <v>8301.584989999999</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>5960.22183</v>
+        <v>4255.40569</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>7802.09121</v>
+        <v>7701.375879999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>13899.5725</v>
+        <v>12544.85369</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>12046.46422</v>
+        <v>11998.93794</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>13152.35242</v>
+        <v>13029.64183</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>11336.94298</v>
+        <v>12144.18443</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>15019.15085</v>
+        <v>15576.28779</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>19044.0988</v>
@@ -2267,25 +2338,30 @@
         <v>23012.44797</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>43596.81916000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>43485.29999</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>97136.458</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>216.915</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>141.7053</v>
+        <v>138.0793</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>3291.78201</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>3323.77378</v>
+        <v>5.669</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>378.88852</v>
@@ -2294,7 +2370,7 @@
         <v>2777.21216</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>1835.88649</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>1131.52154</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>29.30799</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>2412.45</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>34865.83237</v>
+        <v>33740.85184</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>44640.64021</v>
+        <v>27871.95183</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>64848.45232</v>
+        <v>47698.20948</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>45413.37155</v>
+        <v>33489.30196</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>300732.2449699999</v>
+        <v>136101.0105</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>423548.2186</v>
+        <v>108136.97836</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>681780.5149299999</v>
+        <v>358356.62813</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>887853.09025</v>
+        <v>830917.0271699999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1248640.35149</v>
+        <v>1119918.57718</v>
       </c>
       <c r="L40" s="48" t="n">
         <v>793173.08397</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>322938.81541</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>322939.0525</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>533624.353</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>13.89927</v>
@@ -2372,7 +2458,7 @@
         <v>33.30022</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>132.52405</v>
+        <v>180.03297</v>
       </c>
       <c r="J41" s="48" t="n">
         <v>2.6274</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1558.1391</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1188.134</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>3446.42062</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>14634.27448</v>
+        <v>14595.54503</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>31791.21843</v>
+        <v>30298.05279</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>168543.65101</v>
+        <v>43118.35271000001</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>185154.31822</v>
+        <v>40151.60734</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>175413.0836</v>
+        <v>46692.29643</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>222531.74442</v>
+        <v>49717.18184</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>28610.83442</v>
+        <v>38437.21593999999</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>288882.16873</v>
+        <v>41837.54394</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>389805.43838</v>
+        <v>40869.83118</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>78687.57754</v>
+        <v>78655.95239000001</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>79468.13878000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>79370.71003999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>68484.213</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>48320.04067</v>
+        <v>45761.48852</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>48413.63312</v>
+        <v>40923.40127</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>77951.89844</v>
+        <v>66768.07115</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>91015.4865</v>
+        <v>71805.90901</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>142100.79665</v>
+        <v>86691.59679</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>210012.8307</v>
+        <v>116240.72209</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>229351.34366</v>
+        <v>170103.72541</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>289543.84885</v>
+        <v>271742.71494</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>400139.66067</v>
+        <v>375528.58239</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>372922.91729</v>
+        <v>372905.44674</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>482366.29415</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>482366.22323</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>563817.673</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>42320.02993</v>
+        <v>40474.466</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>43286.91749</v>
+        <v>37992.25472</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>58386.30378999999</v>
+        <v>51420.14240999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>71832.60314000001</v>
+        <v>63719.88023</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>68892.18548</v>
+        <v>59284.28060000001</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>183174.57413</v>
+        <v>90979.92334000001</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>210633.77728</v>
+        <v>144982.00776</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>248516.38232</v>
+        <v>235396.99435</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>351566.91198</v>
+        <v>327001.34136</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>341447.24173</v>
+        <v>341429.7711799999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>401637.65832</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>401637.5874</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>359001.552</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6000.01074</v>
+        <v>5287.02252</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>5126.71563</v>
+        <v>2931.14655</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>19565.59465</v>
+        <v>15347.92874</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>19182.88336</v>
+        <v>8086.028780000001</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>73208.61116999999</v>
+        <v>27407.31619</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>26838.25657</v>
+        <v>25260.79875</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>18717.56638</v>
+        <v>25121.71765</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>41027.46653</v>
+        <v>36345.72059</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>48572.74869000001</v>
+        <v>48527.24103</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>31475.67556</v>
@@ -2581,116 +2692,131 @@
       <c r="M46" s="48" t="n">
         <v>80728.63583</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>204816.121</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>52369.51064000001</v>
+        <v>49781.0281</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>98125.36340999999</v>
+        <v>102534.88969</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>130495.3534</v>
+        <v>69292.74522</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>172461.20323</v>
+        <v>137641.83794</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>82602.19671999998</v>
+        <v>210477.69569</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>53917.29008000001</v>
+        <v>162836.32449</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-116227.16147</v>
+        <v>280259.59159</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>15164.21473000003</v>
+        <v>-27626.60410000001</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>477711.95642</v>
+        <v>418009.04638</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>572691.5835999999</v>
+        <v>583534.6887300001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1048729.06908</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1057241.33621</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>-578318.947</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>12267.85027</v>
+        <v>11922.40813</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>23245.39788</v>
+        <v>17892.91007</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>29886.24567</v>
+        <v>29665.49666</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>35222.28204999999</v>
+        <v>33616.58205</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>66049.39345</v>
+        <v>41896.56509</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>121578.88014</v>
+        <v>80630.20494</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>98762.29506</v>
+        <v>105097.66069</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>160299.64363</v>
+        <v>140111.31111</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>140263.38822</v>
+        <v>122580.94018</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>175748.86483</v>
+        <v>166954.67214</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>161956.18136</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>161513.40665</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>327084.095</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>387.08742</v>
+        <v>387.07502</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1197.39012</v>
+        <v>927.6652</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>195.47129</v>
+        <v>182.87028</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>811.7775300000001</v>
+        <v>792.5886</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>563.24563</v>
+        <v>523.4005199999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1533.43664</v>
+        <v>896.3894799999999</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1219.23317</v>
+        <v>1218.27611</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>11542.7969</v>
+        <v>11524.32451</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>5125.67002</v>
+        <v>5125.07702</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>1992.2598</v>
@@ -2698,95 +2824,110 @@
       <c r="M49" s="48" t="n">
         <v>16457.75278</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>7608.568</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>11880.76285</v>
+        <v>11535.33311</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>22048.00776</v>
+        <v>16965.24487</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>29690.77438</v>
+        <v>29482.62638</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>34410.50452</v>
+        <v>32823.99345</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>65486.14782</v>
+        <v>41373.16457</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>120045.4435</v>
+        <v>79733.81546000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>97543.06189</v>
+        <v>103879.38458</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>148756.84673</v>
+        <v>128586.9866</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>135137.7182</v>
+        <v>117455.86316</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>173756.60503</v>
+        <v>164962.41234</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>145498.42858</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>145055.65387</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>319475.527</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>21677.48547</v>
+        <v>21007.51144</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>33489.06392</v>
+        <v>28801.50563</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>166768.75073</v>
+        <v>156436.6509</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>47233.9339</v>
+        <v>43418.38918</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>86650.70813000001</v>
+        <v>82716.70499000001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>150387.39872</v>
+        <v>122056.63498</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>147286.85659</v>
+        <v>112683.36046</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>182343.95362</v>
+        <v>173083.66035</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>181203.15784</v>
+        <v>158579.93309</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>207967.20024</v>
+        <v>207899.54051</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>194377.9459</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>194345.35898</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>221562.768</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>3182.62142</v>
+        <v>2769.83963</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>9031.9936</v>
+        <v>9003.501040000001</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>21030.34317</v>
@@ -2801,13 +2942,13 @@
         <v>21932.93451</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>32121.75413</v>
+        <v>32200.85814</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>28511.17597</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>43120.24243</v>
+        <v>38654.8034</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>33023.26207</v>
@@ -2815,38 +2956,43 @@
       <c r="M52" s="48" t="n">
         <v>23790.21186</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>33427.806</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>607.36028</v>
+        <v>550.6809599999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>2225.7382</v>
+        <v>2177.70197</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>5513.787740000001</v>
+        <v>5500.568569999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>989.98677</v>
+        <v>952.76446</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>1622.71097</v>
+        <v>1193.89533</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2542.04831</v>
+        <v>2441.24789</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>9212.35349</v>
+        <v>9286.794330000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>10746.04832</v>
+        <v>10471.42326</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>5663.79055</v>
+        <v>5238.97371</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>4753.34985</v>
@@ -2854,164 +3000,187 @@
       <c r="M53" s="48" t="n">
         <v>6010.036270000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>8617.592000000001</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>17887.50377</v>
+        <v>17686.99085</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>22231.33212</v>
+        <v>17620.30262</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>140224.61982</v>
+        <v>129905.73916</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>29307.57638</v>
+        <v>25529.25397</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>62264.16452</v>
+        <v>58758.97702</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>125912.4159</v>
+        <v>97682.45258000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>105952.74897</v>
+        <v>71195.70799000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>143086.72933</v>
+        <v>134101.06112</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>132419.12486</v>
+        <v>114686.15598</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>170190.58832</v>
+        <v>170122.92859</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>164577.69777</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>164545.11085</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>179517.37</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>42959.87544</v>
+        <v>40695.92479</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>87881.69737000001</v>
+        <v>91626.29412999999</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-6387.15166</v>
+        <v>-57478.40902</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>160449.55138</v>
+        <v>127840.03081</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>62000.88203999999</v>
+        <v>169657.55579</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>25108.7715</v>
+        <v>121409.89445</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-164751.723</v>
+        <v>272673.89182</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-6880.09526000002</v>
+        <v>-60598.95333999997</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>436772.1868000001</v>
+        <v>382010.05347</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>540473.2481900001</v>
+        <v>542589.82036</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1016307.30454</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1024409.38388</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>-472797.62</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>22063.88599</v>
+        <v>21876.59752</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>30111.08807</v>
+        <v>28963.9317</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>43254.65637999999</v>
+        <v>38337.64997</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>46680.64028</v>
+        <v>46202.38712</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>62584.54742999999</v>
+        <v>61485.02800999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>77877.84901000001</v>
+        <v>76696.25459</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>81799.71103000001</v>
+        <v>96557.01579999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>108880.57454</v>
+        <v>107452.71945</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>172970.75117</v>
+        <v>171973.06002</v>
       </c>
       <c r="L56" s="47" t="n">
         <v>211950.41903</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>284604.01091</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>284597.41091</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>111666.015</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>20895.98945</v>
+        <v>18819.32727</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>57770.6093</v>
+        <v>62662.36243</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-49641.80804</v>
+        <v>-95816.05898999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>113768.9111</v>
+        <v>81637.64369</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-583.6653900000155</v>
+        <v>108172.52778</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-52769.07751</v>
+        <v>44713.63986</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-246551.43403</v>
+        <v>176116.87602</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-115760.6698</v>
+        <v>-168051.67279</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>263801.43563</v>
+        <v>210036.99345</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>328522.82916</v>
+        <v>330639.40133</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>731703.2936299999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>739811.97297</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>-584463.635</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="F59" s="35" t="n">
+        <v>105</v>
+      </c>
+      <c r="G59" s="35" t="n">
         <v>124</v>
       </c>
-      <c r="G59" s="35" t="n">
-        <v>139</v>
-      </c>
       <c r="H59" s="35" t="n">
+        <v>128</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>144</v>
+      </c>
+      <c r="J59" s="35" t="n">
+        <v>142</v>
+      </c>
+      <c r="K59" s="35" t="n">
+        <v>151</v>
+      </c>
+      <c r="L59" s="35" t="n">
         <v>141</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>154</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>165</v>
-      </c>
-      <c r="K59" s="35" t="n">
-        <v>181</v>
-      </c>
-      <c r="L59" s="35" t="n">
-        <v>143</v>
-      </c>
       <c r="M59" s="35" t="n">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>142</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>